--- a/biology/Zoologie/Chrysopetalidae/Chrysopetalidae.xlsx
+++ b/biology/Zoologie/Chrysopetalidae/Chrysopetalidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chrysopetalidae sont une famille de vers marins polychètes de l'ordre des Phyllodocida.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (31 mai 2023)[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (31 mai 2023) : 
 Acanthopale San Martín, 1986
 Arichlidon Watson Russell, 1998
 Bhawania Schmarda, 1861
@@ -573,9 +587,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Chrysopetalidae Ehlers, 1864[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Chrysopetalidae Ehlers, 1864,.
 </t>
         </is>
       </c>
@@ -604,7 +620,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Ernst Ehlers, Die Borstenwürmer (Annelida Chaetopoda) nach systematischen und anatomischen Untersuchungen dargestellt, Leipzig, Wilhem Engelmann, 1864, 840 p. (OCLC 3686483, DOI 10.5962/BHL.TITLE.2081, lire en ligne)</t>
         </is>
